--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_010_DepoFRAFuturesQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_010_DepoFRAFuturesQuotes.xlsx
@@ -15,9 +15,6 @@
     <sheet name="ImmFra6M " sheetId="19" r:id="rId6"/>
     <sheet name="FuturesHWConvAdj" sheetId="14" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>Currency</t>
   </si>
@@ -204,6 +201,9 @@
   <si>
     <t>USD</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +219,7 @@
     <numFmt numFmtId="170" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="171" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -910,22 +910,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1220,7 +1204,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="13" customWidth="1"/>
@@ -1232,13 +1216,13 @@
     <col min="8" max="16384" width="8" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="94" t="s">
         <v>29</v>
@@ -1247,14 +1231,14 @@
       <c r="D2" s="95"/>
       <c r="E2" s="96"/>
     </row>
-    <row r="3" spans="1:5" s="16" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" s="16" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="17"/>
       <c r="C4" s="20" t="s">
@@ -1263,7 +1247,7 @@
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" s="16" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="17"/>
       <c r="C5" s="20" t="s">
@@ -1274,7 +1258,7 @@
       </c>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" s="16" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="17"/>
       <c r="C6" s="20" t="s">
@@ -1285,7 +1269,7 @@
       </c>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" s="16" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="17"/>
       <c r="C7" s="20" t="s">
@@ -1296,19 +1280,18 @@
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" s="16" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="17"/>
       <c r="C8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="23" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5" s="16" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="17"/>
       <c r="C9" s="20" t="s">
@@ -1319,15 +1302,15 @@
       </c>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" s="16" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="1:5" ht="12" thickBot="1"/>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="94" t="s">
         <v>28</v>
       </c>
@@ -1335,13 +1318,13 @@
       <c r="D12" s="95"/>
       <c r="E12" s="96"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="17"/>
       <c r="C14" s="20" t="s">
         <v>0</v>
@@ -1351,7 +1334,7 @@
       </c>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="17"/>
       <c r="C15" s="20" t="s">
         <v>23</v>
@@ -1361,7 +1344,7 @@
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="17"/>
       <c r="C16" s="20" t="s">
         <v>24</v>
@@ -1371,7 +1354,7 @@
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="17"/>
       <c r="C17" s="20" t="s">
         <v>25</v>
@@ -1381,7 +1364,7 @@
       </c>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="2:5" ht="12" thickBot="1">
+    <row r="18" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -1413,7 +1396,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="28" bestFit="1" customWidth="1"/>
@@ -1424,7 +1407,7 @@
     <col min="7" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1432,24 +1415,24 @@
       <c r="E1" s="31"/>
       <c r="F1" s="32"/>
     </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1">
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
       <c r="B2" s="71"/>
       <c r="C2" s="63" t="str">
         <f>Currency&amp;"_010_"&amp;"Deposits.xml"</f>
         <v>USD_010_Deposits.xml</v>
       </c>
-      <c r="D2" s="72">
+      <c r="D2" s="72" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D20,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>18</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="65" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
         <v/>
       </c>
       <c r="F2" s="34"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="92" t="s">
         <v>1</v>
@@ -1468,7 +1451,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
       <c r="B4" s="92" t="s">
         <v>2</v>
@@ -1487,7 +1470,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="33"/>
       <c r="B5" s="92" t="s">
         <v>3</v>
@@ -1506,7 +1489,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="33"/>
       <c r="B6" s="92" t="s">
         <v>4</v>
@@ -1525,7 +1508,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="33"/>
       <c r="B7" s="92" t="s">
         <v>5</v>
@@ -1544,7 +1527,7 @@
       </c>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="92" t="s">
         <v>6</v>
@@ -1563,7 +1546,7 @@
       </c>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="92" t="s">
         <v>7</v>
@@ -1582,7 +1565,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="92" t="s">
         <v>8</v>
@@ -1601,7 +1584,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="92" t="s">
         <v>9</v>
@@ -1620,7 +1603,7 @@
       </c>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="92" t="s">
         <v>10</v>
@@ -1639,7 +1622,7 @@
       </c>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
       <c r="B13" s="92" t="s">
         <v>11</v>
@@ -1658,7 +1641,7 @@
       </c>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="92" t="s">
         <v>12</v>
@@ -1677,7 +1660,7 @@
       </c>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
       <c r="B15" s="92" t="s">
         <v>47</v>
@@ -1696,7 +1679,7 @@
       </c>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="92" t="s">
         <v>48</v>
@@ -1715,7 +1698,7 @@
       </c>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="92" t="s">
         <v>13</v>
@@ -1734,7 +1717,7 @@
       </c>
       <c r="F17" s="34"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="92" t="s">
         <v>49</v>
@@ -1753,7 +1736,7 @@
       </c>
       <c r="F18" s="34"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="92" t="s">
         <v>50</v>
@@ -1772,7 +1755,7 @@
       </c>
       <c r="F19" s="34"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="92" t="s">
         <v>14</v>
@@ -1791,7 +1774,7 @@
       </c>
       <c r="F20" s="34"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -1816,7 +1799,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -1828,7 +1811,7 @@
     <col min="8" max="8" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1837,7 +1820,7 @@
       <c r="F1"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1">
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="73"/>
       <c r="C2" s="74"/>
@@ -1845,17 +1828,17 @@
         <f>Currency&amp;"_010_"&amp;"FRA.xml"</f>
         <v>USD_010_FRA.xml</v>
       </c>
-      <c r="E2" s="80">
+      <c r="E2" s="80" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(E3:E35,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
-        <v>33</v>
+        <v>#NUM!</v>
       </c>
       <c r="F2" s="75" t="str">
-        <f>_xll.ohRangeRetrieveError(E2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(E2)</f>
         <v/>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="81" t="s">
         <v>54</v>
@@ -1877,7 +1860,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="84" t="s">
         <v>53</v>
@@ -1899,7 +1882,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="81" t="s">
         <v>32</v>
@@ -1921,7 +1904,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="84" t="s">
         <v>34</v>
@@ -1943,7 +1926,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="81">
         <v>1</v>
@@ -1965,7 +1948,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="87">
         <v>2</v>
@@ -1987,7 +1970,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="87">
         <v>3</v>
@@ -2009,7 +1992,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="87">
         <v>4</v>
@@ -2031,7 +2014,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="87">
         <v>5</v>
@@ -2053,7 +2036,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="84">
         <v>6</v>
@@ -2075,7 +2058,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="81" t="s">
         <v>35</v>
@@ -2097,7 +2080,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="84" t="s">
         <v>36</v>
@@ -2119,7 +2102,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="81">
         <v>1</v>
@@ -2142,7 +2125,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="87">
         <v>2</v>
@@ -2165,7 +2148,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="87">
         <v>3</v>
@@ -2188,7 +2171,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="87">
         <v>4</v>
@@ -2211,7 +2194,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="87">
         <v>5</v>
@@ -2234,7 +2217,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="87">
         <v>6</v>
@@ -2257,7 +2240,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="87">
         <v>7</v>
@@ -2280,7 +2263,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="87">
         <v>8</v>
@@ -2303,7 +2286,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="87">
         <v>9</v>
@@ -2326,7 +2309,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="87">
         <v>10</v>
@@ -2349,7 +2332,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="87">
         <v>11</v>
@@ -2372,7 +2355,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="87">
         <v>12</v>
@@ -2395,7 +2378,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="87">
         <v>13</v>
@@ -2418,7 +2401,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="87">
         <v>14</v>
@@ -2441,7 +2424,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="87">
         <v>15</v>
@@ -2464,7 +2447,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="87">
         <v>16</v>
@@ -2487,7 +2470,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="87">
         <v>17</v>
@@ -2510,7 +2493,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="84">
         <v>18</v>
@@ -2533,7 +2516,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="81" t="s">
         <v>51</v>
@@ -2555,7 +2538,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="84" t="s">
         <v>52</v>
@@ -2577,7 +2560,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="90">
         <v>12</v>
@@ -2599,7 +2582,7 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="13.5" thickBot="1">
+    <row r="36" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2625,7 +2608,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="28" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="28" bestFit="1" customWidth="1"/>
@@ -2638,7 +2621,7 @@
     <col min="9" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -2652,7 +2635,7 @@
       <c r="G1" s="52"/>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5">
+    <row r="2" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
       <c r="B2" s="66" t="s">
         <v>15</v>
@@ -2667,17 +2650,17 @@
         <f>Currency&amp;"_010_"&amp;$D$1&amp;$E$1&amp;".xml"</f>
         <v>USD_010_FUT1M.xml</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="65" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="55"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="56"/>
       <c r="B3" s="67">
         <v>1</v>
@@ -2703,7 +2686,7 @@
       </c>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="56"/>
       <c r="B4" s="68">
         <v>2</v>
@@ -2728,7 +2711,7 @@
       </c>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="68">
         <v>3</v>
@@ -2753,7 +2736,7 @@
       </c>
       <c r="H5" s="55"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="56"/>
       <c r="B6" s="68">
         <v>4</v>
@@ -2778,7 +2761,7 @@
       </c>
       <c r="H6" s="55"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
       <c r="B7" s="68">
         <v>5</v>
@@ -2803,7 +2786,7 @@
       </c>
       <c r="H7" s="55"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
       <c r="B8" s="68">
         <v>6</v>
@@ -2828,7 +2811,7 @@
       </c>
       <c r="H8" s="55"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
       <c r="B9" s="68">
         <v>7</v>
@@ -2853,7 +2836,7 @@
       </c>
       <c r="H9" s="55"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
       <c r="B10" s="68">
         <v>8</v>
@@ -2878,7 +2861,7 @@
       </c>
       <c r="H10" s="55"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
       <c r="B11" s="68">
         <v>9</v>
@@ -2903,7 +2886,7 @@
       </c>
       <c r="H11" s="55"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
       <c r="B12" s="68">
         <v>10</v>
@@ -2928,7 +2911,7 @@
       </c>
       <c r="H12" s="55"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
       <c r="B13" s="68">
         <v>11</v>
@@ -2953,7 +2936,7 @@
       </c>
       <c r="H13" s="55"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="56"/>
       <c r="B14" s="68">
         <v>12</v>
@@ -2978,7 +2961,7 @@
       </c>
       <c r="H14" s="55"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="56"/>
       <c r="B15" s="68">
         <v>13</v>
@@ -3003,7 +2986,7 @@
       </c>
       <c r="H15" s="55"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="56"/>
       <c r="B16" s="68">
         <v>14</v>
@@ -3028,7 +3011,7 @@
       </c>
       <c r="H16" s="55"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="56"/>
       <c r="B17" s="68">
         <v>15</v>
@@ -3053,7 +3036,7 @@
       </c>
       <c r="H17" s="55"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="56"/>
       <c r="B18" s="68">
         <v>16</v>
@@ -3078,7 +3061,7 @@
       </c>
       <c r="H18" s="55"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="56"/>
       <c r="B19" s="68">
         <v>17</v>
@@ -3103,7 +3086,7 @@
       </c>
       <c r="H19" s="55"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="56"/>
       <c r="B20" s="68">
         <v>18</v>
@@ -3128,7 +3111,7 @@
       </c>
       <c r="H20" s="55"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="56"/>
       <c r="B21" s="68">
         <v>19</v>
@@ -3153,7 +3136,7 @@
       </c>
       <c r="H21" s="55"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="56"/>
       <c r="B22" s="68">
         <v>20</v>
@@ -3178,7 +3161,7 @@
       </c>
       <c r="H22" s="55"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="56"/>
       <c r="B23" s="68">
         <v>21</v>
@@ -3203,7 +3186,7 @@
       </c>
       <c r="H23" s="55"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="56"/>
       <c r="B24" s="68">
         <v>22</v>
@@ -3228,7 +3211,7 @@
       </c>
       <c r="H24" s="55"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="56"/>
       <c r="B25" s="68">
         <v>23</v>
@@ -3253,7 +3236,7 @@
       </c>
       <c r="H25" s="55"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="56"/>
       <c r="B26" s="68">
         <v>24</v>
@@ -3278,7 +3261,7 @@
       </c>
       <c r="H26" s="55"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="56"/>
       <c r="B27" s="68">
         <v>25</v>
@@ -3303,7 +3286,7 @@
       </c>
       <c r="H27" s="55"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="68">
         <v>26</v>
@@ -3328,7 +3311,7 @@
       </c>
       <c r="H28" s="55"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="68">
         <v>27</v>
@@ -3353,7 +3336,7 @@
       </c>
       <c r="H29" s="55"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
       <c r="B30" s="68">
         <v>28</v>
@@ -3378,7 +3361,7 @@
       </c>
       <c r="H30" s="55"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="56"/>
       <c r="B31" s="68">
         <v>29</v>
@@ -3403,7 +3386,7 @@
       </c>
       <c r="H31" s="55"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="56"/>
       <c r="B32" s="68">
         <v>30</v>
@@ -3428,7 +3411,7 @@
       </c>
       <c r="H32" s="55"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="56"/>
       <c r="B33" s="68">
         <v>31</v>
@@ -3453,7 +3436,7 @@
       </c>
       <c r="H33" s="55"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="56"/>
       <c r="B34" s="68">
         <v>32</v>
@@ -3478,7 +3461,7 @@
       </c>
       <c r="H34" s="55"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="56"/>
       <c r="B35" s="68">
         <v>33</v>
@@ -3503,7 +3486,7 @@
       </c>
       <c r="H35" s="55"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="56"/>
       <c r="B36" s="68">
         <v>34</v>
@@ -3528,7 +3511,7 @@
       </c>
       <c r="H36" s="55"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="56"/>
       <c r="B37" s="68">
         <v>35</v>
@@ -3553,7 +3536,7 @@
       </c>
       <c r="H37" s="55"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="56"/>
       <c r="B38" s="68">
         <v>36</v>
@@ -3578,7 +3561,7 @@
       </c>
       <c r="H38" s="55"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="56"/>
       <c r="B39" s="68">
         <v>37</v>
@@ -3603,7 +3586,7 @@
       </c>
       <c r="H39" s="55"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="56"/>
       <c r="B40" s="68">
         <v>38</v>
@@ -3628,7 +3611,7 @@
       </c>
       <c r="H40" s="55"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="56"/>
       <c r="B41" s="68">
         <v>39</v>
@@ -3653,7 +3636,7 @@
       </c>
       <c r="H41" s="55"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
       <c r="B42" s="68">
         <v>40</v>
@@ -3678,7 +3661,7 @@
       </c>
       <c r="H42" s="55"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
       <c r="B43" s="68">
         <v>41</v>
@@ -3703,7 +3686,7 @@
       </c>
       <c r="H43" s="55"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
       <c r="B44" s="68">
         <v>42</v>
@@ -3728,7 +3711,7 @@
       </c>
       <c r="H44" s="55"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
       <c r="B45" s="68">
         <v>43</v>
@@ -3753,7 +3736,7 @@
       </c>
       <c r="H45" s="55"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
       <c r="B46" s="68">
         <v>44</v>
@@ -3778,7 +3761,7 @@
       </c>
       <c r="H46" s="55"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="56"/>
       <c r="B47" s="68">
         <v>45</v>
@@ -3803,7 +3786,7 @@
       </c>
       <c r="H47" s="55"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="56"/>
       <c r="B48" s="68">
         <v>46</v>
@@ -3828,7 +3811,7 @@
       </c>
       <c r="H48" s="55"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="56"/>
       <c r="B49" s="68">
         <v>47</v>
@@ -3853,7 +3836,7 @@
       </c>
       <c r="H49" s="55"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="56"/>
       <c r="B50" s="68">
         <v>48</v>
@@ -3878,7 +3861,7 @@
       </c>
       <c r="H50" s="55"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="56"/>
       <c r="B51" s="68">
         <v>49</v>
@@ -3903,7 +3886,7 @@
       </c>
       <c r="H51" s="55"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="56"/>
       <c r="B52" s="68">
         <v>50</v>
@@ -3928,7 +3911,7 @@
       </c>
       <c r="H52" s="55"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="56"/>
       <c r="B53" s="68">
         <v>51</v>
@@ -3953,7 +3936,7 @@
       </c>
       <c r="H53" s="55"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="56"/>
       <c r="B54" s="68">
         <v>52</v>
@@ -3978,7 +3961,7 @@
       </c>
       <c r="H54" s="55"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="56"/>
       <c r="B55" s="68">
         <v>53</v>
@@ -4003,7 +3986,7 @@
       </c>
       <c r="H55" s="55"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="56"/>
       <c r="B56" s="68">
         <v>54</v>
@@ -4028,7 +4011,7 @@
       </c>
       <c r="H56" s="55"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="56"/>
       <c r="B57" s="68">
         <v>55</v>
@@ -4053,7 +4036,7 @@
       </c>
       <c r="H57" s="55"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="56"/>
       <c r="B58" s="68">
         <v>56</v>
@@ -4078,7 +4061,7 @@
       </c>
       <c r="H58" s="55"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="56"/>
       <c r="B59" s="68">
         <v>57</v>
@@ -4103,7 +4086,7 @@
       </c>
       <c r="H59" s="55"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="56"/>
       <c r="B60" s="68">
         <v>58</v>
@@ -4128,7 +4111,7 @@
       </c>
       <c r="H60" s="55"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="56"/>
       <c r="B61" s="68">
         <v>59</v>
@@ -4153,7 +4136,7 @@
       </c>
       <c r="H61" s="55"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="56"/>
       <c r="B62" s="68">
         <v>60</v>
@@ -4178,7 +4161,7 @@
       </c>
       <c r="H62" s="55"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="56"/>
       <c r="B63" s="68">
         <v>61</v>
@@ -4203,7 +4186,7 @@
       </c>
       <c r="H63" s="55"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="56"/>
       <c r="B64" s="68">
         <v>62</v>
@@ -4228,7 +4211,7 @@
       </c>
       <c r="H64" s="55"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="56"/>
       <c r="B65" s="68">
         <v>63</v>
@@ -4253,7 +4236,7 @@
       </c>
       <c r="H65" s="55"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="56"/>
       <c r="B66" s="68">
         <v>64</v>
@@ -4278,7 +4261,7 @@
       </c>
       <c r="H66" s="55"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="56"/>
       <c r="B67" s="68">
         <v>65</v>
@@ -4303,7 +4286,7 @@
       </c>
       <c r="H67" s="55"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="56"/>
       <c r="B68" s="68">
         <v>66</v>
@@ -4328,7 +4311,7 @@
       </c>
       <c r="H68" s="55"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="56"/>
       <c r="B69" s="68">
         <v>67</v>
@@ -4353,7 +4336,7 @@
       </c>
       <c r="H69" s="55"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="56"/>
       <c r="B70" s="68">
         <v>68</v>
@@ -4378,7 +4361,7 @@
       </c>
       <c r="H70" s="55"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="56"/>
       <c r="B71" s="68">
         <v>69</v>
@@ -4403,7 +4386,7 @@
       </c>
       <c r="H71" s="55"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="56"/>
       <c r="B72" s="68">
         <v>70</v>
@@ -4428,7 +4411,7 @@
       </c>
       <c r="H72" s="55"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="56"/>
       <c r="B73" s="68">
         <v>71</v>
@@ -4453,7 +4436,7 @@
       </c>
       <c r="H73" s="55"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="56"/>
       <c r="B74" s="68">
         <v>72</v>
@@ -4478,7 +4461,7 @@
       </c>
       <c r="H74" s="55"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="56"/>
       <c r="B75" s="68">
         <v>73</v>
@@ -4503,7 +4486,7 @@
       </c>
       <c r="H75" s="55"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="56"/>
       <c r="B76" s="68">
         <v>74</v>
@@ -4528,7 +4511,7 @@
       </c>
       <c r="H76" s="55"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="56"/>
       <c r="B77" s="68">
         <v>75</v>
@@ -4553,7 +4536,7 @@
       </c>
       <c r="H77" s="55"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="56"/>
       <c r="B78" s="68">
         <v>76</v>
@@ -4578,7 +4561,7 @@
       </c>
       <c r="H78" s="55"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="56"/>
       <c r="B79" s="68">
         <v>77</v>
@@ -4603,7 +4586,7 @@
       </c>
       <c r="H79" s="55"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="56"/>
       <c r="B80" s="68">
         <v>78</v>
@@ -4628,7 +4611,7 @@
       </c>
       <c r="H80" s="55"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="56"/>
       <c r="B81" s="68">
         <v>79</v>
@@ -4653,7 +4636,7 @@
       </c>
       <c r="H81" s="55"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="56"/>
       <c r="B82" s="68">
         <v>80</v>
@@ -4678,7 +4661,7 @@
       </c>
       <c r="H82" s="55"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="56"/>
       <c r="B83" s="68">
         <v>81</v>
@@ -4703,7 +4686,7 @@
       </c>
       <c r="H83" s="55"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="56"/>
       <c r="B84" s="68">
         <v>82</v>
@@ -4728,7 +4711,7 @@
       </c>
       <c r="H84" s="55"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="56"/>
       <c r="B85" s="68">
         <v>83</v>
@@ -4753,7 +4736,7 @@
       </c>
       <c r="H85" s="55"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="56"/>
       <c r="B86" s="68">
         <v>84</v>
@@ -4778,7 +4761,7 @@
       </c>
       <c r="H86" s="55"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="56"/>
       <c r="B87" s="68">
         <v>85</v>
@@ -4803,7 +4786,7 @@
       </c>
       <c r="H87" s="55"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="56"/>
       <c r="B88" s="68">
         <v>86</v>
@@ -4828,7 +4811,7 @@
       </c>
       <c r="H88" s="55"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="56"/>
       <c r="B89" s="68">
         <v>87</v>
@@ -4853,7 +4836,7 @@
       </c>
       <c r="H89" s="55"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="56"/>
       <c r="B90" s="68">
         <v>88</v>
@@ -4878,7 +4861,7 @@
       </c>
       <c r="H90" s="55"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="56"/>
       <c r="B91" s="68">
         <v>89</v>
@@ -4903,7 +4886,7 @@
       </c>
       <c r="H91" s="55"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="56"/>
       <c r="B92" s="68">
         <v>90</v>
@@ -4928,7 +4911,7 @@
       </c>
       <c r="H92" s="55"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="56"/>
       <c r="B93" s="68">
         <v>91</v>
@@ -4953,7 +4936,7 @@
       </c>
       <c r="H93" s="55"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="56"/>
       <c r="B94" s="68">
         <v>92</v>
@@ -4978,7 +4961,7 @@
       </c>
       <c r="H94" s="55"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="56"/>
       <c r="B95" s="68">
         <v>93</v>
@@ -5003,7 +4986,7 @@
       </c>
       <c r="H95" s="55"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="56"/>
       <c r="B96" s="68">
         <v>94</v>
@@ -5028,7 +5011,7 @@
       </c>
       <c r="H96" s="55"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="56"/>
       <c r="B97" s="68">
         <v>95</v>
@@ -5053,7 +5036,7 @@
       </c>
       <c r="H97" s="55"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="56"/>
       <c r="B98" s="68">
         <v>96</v>
@@ -5078,7 +5061,7 @@
       </c>
       <c r="H98" s="55"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="56"/>
       <c r="B99" s="68">
         <v>97</v>
@@ -5103,7 +5086,7 @@
       </c>
       <c r="H99" s="55"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="56"/>
       <c r="B100" s="68">
         <v>98</v>
@@ -5128,7 +5111,7 @@
       </c>
       <c r="H100" s="55"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="56"/>
       <c r="B101" s="68">
         <v>99</v>
@@ -5153,7 +5136,7 @@
       </c>
       <c r="H101" s="55"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="56"/>
       <c r="B102" s="68">
         <v>100</v>
@@ -5178,7 +5161,7 @@
       </c>
       <c r="H102" s="55"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="56"/>
       <c r="B103" s="68">
         <v>101</v>
@@ -5203,7 +5186,7 @@
       </c>
       <c r="H103" s="55"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="56"/>
       <c r="B104" s="68">
         <v>102</v>
@@ -5228,7 +5211,7 @@
       </c>
       <c r="H104" s="55"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="56"/>
       <c r="B105" s="68">
         <v>103</v>
@@ -5253,7 +5236,7 @@
       </c>
       <c r="H105" s="55"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="56"/>
       <c r="B106" s="68">
         <v>104</v>
@@ -5278,7 +5261,7 @@
       </c>
       <c r="H106" s="55"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="56"/>
       <c r="B107" s="68">
         <v>105</v>
@@ -5303,7 +5286,7 @@
       </c>
       <c r="H107" s="55"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="56"/>
       <c r="B108" s="68">
         <v>106</v>
@@ -5328,7 +5311,7 @@
       </c>
       <c r="H108" s="55"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="56"/>
       <c r="B109" s="68">
         <v>107</v>
@@ -5353,7 +5336,7 @@
       </c>
       <c r="H109" s="55"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="56"/>
       <c r="B110" s="68">
         <v>108</v>
@@ -5378,7 +5361,7 @@
       </c>
       <c r="H110" s="55"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="56"/>
       <c r="B111" s="68">
         <v>109</v>
@@ -5403,7 +5386,7 @@
       </c>
       <c r="H111" s="55"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="56"/>
       <c r="B112" s="68">
         <v>110</v>
@@ -5428,7 +5411,7 @@
       </c>
       <c r="H112" s="55"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="56"/>
       <c r="B113" s="68">
         <v>111</v>
@@ -5453,7 +5436,7 @@
       </c>
       <c r="H113" s="55"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="56"/>
       <c r="B114" s="68">
         <v>112</v>
@@ -5478,7 +5461,7 @@
       </c>
       <c r="H114" s="55"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="56"/>
       <c r="B115" s="68">
         <v>113</v>
@@ -5503,7 +5486,7 @@
       </c>
       <c r="H115" s="55"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="56"/>
       <c r="B116" s="68">
         <v>114</v>
@@ -5528,7 +5511,7 @@
       </c>
       <c r="H116" s="55"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="56"/>
       <c r="B117" s="68">
         <v>115</v>
@@ -5553,7 +5536,7 @@
       </c>
       <c r="H117" s="55"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="56"/>
       <c r="B118" s="68">
         <v>116</v>
@@ -5578,7 +5561,7 @@
       </c>
       <c r="H118" s="55"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="56"/>
       <c r="B119" s="68">
         <v>117</v>
@@ -5603,7 +5586,7 @@
       </c>
       <c r="H119" s="55"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="56"/>
       <c r="B120" s="68">
         <v>118</v>
@@ -5628,7 +5611,7 @@
       </c>
       <c r="H120" s="55"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="56"/>
       <c r="B121" s="68">
         <v>119</v>
@@ -5653,7 +5636,7 @@
       </c>
       <c r="H121" s="55"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="56"/>
       <c r="B122" s="68">
         <v>120</v>
@@ -5678,7 +5661,7 @@
       </c>
       <c r="H122" s="55"/>
     </row>
-    <row r="123" spans="1:8" ht="12" thickBot="1">
+    <row r="123" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="57"/>
       <c r="B123" s="58"/>
       <c r="C123" s="58"/>
@@ -5705,7 +5688,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="28" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="28" bestFit="1" customWidth="1"/>
@@ -5718,7 +5701,7 @@
     <col min="9" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -5732,7 +5715,7 @@
       <c r="G1" s="52"/>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5">
+    <row r="2" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
       <c r="B2" s="66" t="s">
         <v>15</v>
@@ -5747,17 +5730,17 @@
         <f>Currency&amp;"_010_"&amp;$D$1&amp;$E$1&amp;".xml"</f>
         <v>USD_010_FUT3M.xml</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="65" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="55"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="56"/>
       <c r="B3" s="67">
         <v>1</v>
@@ -5783,7 +5766,7 @@
       </c>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="56"/>
       <c r="B4" s="68">
         <v>2</v>
@@ -5808,7 +5791,7 @@
       </c>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="68">
         <v>3</v>
@@ -5833,7 +5816,7 @@
       </c>
       <c r="H5" s="55"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="56"/>
       <c r="B6" s="68">
         <v>4</v>
@@ -5858,7 +5841,7 @@
       </c>
       <c r="H6" s="55"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
       <c r="B7" s="68">
         <v>5</v>
@@ -5883,7 +5866,7 @@
       </c>
       <c r="H7" s="55"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
       <c r="B8" s="68">
         <v>6</v>
@@ -5908,7 +5891,7 @@
       </c>
       <c r="H8" s="55"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
       <c r="B9" s="68">
         <v>7</v>
@@ -5933,7 +5916,7 @@
       </c>
       <c r="H9" s="55"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
       <c r="B10" s="68">
         <v>8</v>
@@ -5958,7 +5941,7 @@
       </c>
       <c r="H10" s="55"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
       <c r="B11" s="68">
         <v>9</v>
@@ -5983,7 +5966,7 @@
       </c>
       <c r="H11" s="55"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
       <c r="B12" s="68">
         <v>10</v>
@@ -6008,7 +5991,7 @@
       </c>
       <c r="H12" s="55"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
       <c r="B13" s="68">
         <v>11</v>
@@ -6033,7 +6016,7 @@
       </c>
       <c r="H13" s="55"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="56"/>
       <c r="B14" s="68">
         <v>12</v>
@@ -6058,7 +6041,7 @@
       </c>
       <c r="H14" s="55"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="56"/>
       <c r="B15" s="68">
         <v>13</v>
@@ -6083,7 +6066,7 @@
       </c>
       <c r="H15" s="55"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="56"/>
       <c r="B16" s="68">
         <v>14</v>
@@ -6108,7 +6091,7 @@
       </c>
       <c r="H16" s="55"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="56"/>
       <c r="B17" s="68">
         <v>15</v>
@@ -6133,7 +6116,7 @@
       </c>
       <c r="H17" s="55"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="56"/>
       <c r="B18" s="68">
         <v>16</v>
@@ -6158,7 +6141,7 @@
       </c>
       <c r="H18" s="55"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="56"/>
       <c r="B19" s="68">
         <v>17</v>
@@ -6183,7 +6166,7 @@
       </c>
       <c r="H19" s="55"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="56"/>
       <c r="B20" s="68">
         <v>18</v>
@@ -6208,7 +6191,7 @@
       </c>
       <c r="H20" s="55"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="56"/>
       <c r="B21" s="68">
         <v>19</v>
@@ -6233,7 +6216,7 @@
       </c>
       <c r="H21" s="55"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="56"/>
       <c r="B22" s="68">
         <v>20</v>
@@ -6258,7 +6241,7 @@
       </c>
       <c r="H22" s="55"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="56"/>
       <c r="B23" s="68">
         <v>21</v>
@@ -6283,7 +6266,7 @@
       </c>
       <c r="H23" s="55"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="56"/>
       <c r="B24" s="68">
         <v>22</v>
@@ -6308,7 +6291,7 @@
       </c>
       <c r="H24" s="55"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="56"/>
       <c r="B25" s="68">
         <v>23</v>
@@ -6333,7 +6316,7 @@
       </c>
       <c r="H25" s="55"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="56"/>
       <c r="B26" s="68">
         <v>24</v>
@@ -6358,7 +6341,7 @@
       </c>
       <c r="H26" s="55"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="56"/>
       <c r="B27" s="68">
         <v>25</v>
@@ -6383,7 +6366,7 @@
       </c>
       <c r="H27" s="55"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="68">
         <v>26</v>
@@ -6408,7 +6391,7 @@
       </c>
       <c r="H28" s="55"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="68">
         <v>27</v>
@@ -6433,7 +6416,7 @@
       </c>
       <c r="H29" s="55"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
       <c r="B30" s="68">
         <v>28</v>
@@ -6458,7 +6441,7 @@
       </c>
       <c r="H30" s="55"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="56"/>
       <c r="B31" s="68">
         <v>29</v>
@@ -6483,7 +6466,7 @@
       </c>
       <c r="H31" s="55"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="56"/>
       <c r="B32" s="68">
         <v>30</v>
@@ -6508,7 +6491,7 @@
       </c>
       <c r="H32" s="55"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="56"/>
       <c r="B33" s="68">
         <v>31</v>
@@ -6533,7 +6516,7 @@
       </c>
       <c r="H33" s="55"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="56"/>
       <c r="B34" s="68">
         <v>32</v>
@@ -6558,7 +6541,7 @@
       </c>
       <c r="H34" s="55"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="56"/>
       <c r="B35" s="68">
         <v>33</v>
@@ -6583,7 +6566,7 @@
       </c>
       <c r="H35" s="55"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="56"/>
       <c r="B36" s="68">
         <v>34</v>
@@ -6608,7 +6591,7 @@
       </c>
       <c r="H36" s="55"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="56"/>
       <c r="B37" s="68">
         <v>35</v>
@@ -6633,7 +6616,7 @@
       </c>
       <c r="H37" s="55"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="56"/>
       <c r="B38" s="68">
         <v>36</v>
@@ -6658,7 +6641,7 @@
       </c>
       <c r="H38" s="55"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="56"/>
       <c r="B39" s="68">
         <v>37</v>
@@ -6683,7 +6666,7 @@
       </c>
       <c r="H39" s="55"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="56"/>
       <c r="B40" s="68">
         <v>38</v>
@@ -6708,7 +6691,7 @@
       </c>
       <c r="H40" s="55"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="56"/>
       <c r="B41" s="68">
         <v>39</v>
@@ -6733,7 +6716,7 @@
       </c>
       <c r="H41" s="55"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
       <c r="B42" s="68">
         <v>40</v>
@@ -6758,7 +6741,7 @@
       </c>
       <c r="H42" s="55"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
       <c r="B43" s="68">
         <v>41</v>
@@ -6783,7 +6766,7 @@
       </c>
       <c r="H43" s="55"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
       <c r="B44" s="68">
         <v>42</v>
@@ -6808,7 +6791,7 @@
       </c>
       <c r="H44" s="55"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
       <c r="B45" s="68">
         <v>43</v>
@@ -6833,7 +6816,7 @@
       </c>
       <c r="H45" s="55"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
       <c r="B46" s="68">
         <v>44</v>
@@ -6858,7 +6841,7 @@
       </c>
       <c r="H46" s="55"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="56"/>
       <c r="B47" s="68">
         <v>45</v>
@@ -6883,7 +6866,7 @@
       </c>
       <c r="H47" s="55"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="56"/>
       <c r="B48" s="68">
         <v>46</v>
@@ -6908,7 +6891,7 @@
       </c>
       <c r="H48" s="55"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="56"/>
       <c r="B49" s="68">
         <v>47</v>
@@ -6933,7 +6916,7 @@
       </c>
       <c r="H49" s="55"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="56"/>
       <c r="B50" s="68">
         <v>48</v>
@@ -6958,7 +6941,7 @@
       </c>
       <c r="H50" s="55"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="56"/>
       <c r="B51" s="68">
         <v>49</v>
@@ -6983,7 +6966,7 @@
       </c>
       <c r="H51" s="55"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="56"/>
       <c r="B52" s="68">
         <v>50</v>
@@ -7008,7 +6991,7 @@
       </c>
       <c r="H52" s="55"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="56"/>
       <c r="B53" s="68">
         <v>51</v>
@@ -7033,7 +7016,7 @@
       </c>
       <c r="H53" s="55"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="56"/>
       <c r="B54" s="68">
         <v>52</v>
@@ -7058,7 +7041,7 @@
       </c>
       <c r="H54" s="55"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="56"/>
       <c r="B55" s="68">
         <v>53</v>
@@ -7083,7 +7066,7 @@
       </c>
       <c r="H55" s="55"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="56"/>
       <c r="B56" s="68">
         <v>54</v>
@@ -7108,7 +7091,7 @@
       </c>
       <c r="H56" s="55"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="56"/>
       <c r="B57" s="68">
         <v>55</v>
@@ -7133,7 +7116,7 @@
       </c>
       <c r="H57" s="55"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="56"/>
       <c r="B58" s="68">
         <v>56</v>
@@ -7158,7 +7141,7 @@
       </c>
       <c r="H58" s="55"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="56"/>
       <c r="B59" s="68">
         <v>57</v>
@@ -7183,7 +7166,7 @@
       </c>
       <c r="H59" s="55"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="56"/>
       <c r="B60" s="68">
         <v>58</v>
@@ -7208,7 +7191,7 @@
       </c>
       <c r="H60" s="55"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="56"/>
       <c r="B61" s="68">
         <v>59</v>
@@ -7233,7 +7216,7 @@
       </c>
       <c r="H61" s="55"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="56"/>
       <c r="B62" s="68">
         <v>60</v>
@@ -7258,7 +7241,7 @@
       </c>
       <c r="H62" s="55"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="56"/>
       <c r="B63" s="68">
         <v>61</v>
@@ -7283,7 +7266,7 @@
       </c>
       <c r="H63" s="55"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="56"/>
       <c r="B64" s="68">
         <v>62</v>
@@ -7308,7 +7291,7 @@
       </c>
       <c r="H64" s="55"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="56"/>
       <c r="B65" s="68">
         <v>63</v>
@@ -7333,7 +7316,7 @@
       </c>
       <c r="H65" s="55"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="56"/>
       <c r="B66" s="68">
         <v>64</v>
@@ -7358,7 +7341,7 @@
       </c>
       <c r="H66" s="55"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="56"/>
       <c r="B67" s="68">
         <v>65</v>
@@ -7383,7 +7366,7 @@
       </c>
       <c r="H67" s="55"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="56"/>
       <c r="B68" s="68">
         <v>66</v>
@@ -7408,7 +7391,7 @@
       </c>
       <c r="H68" s="55"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="56"/>
       <c r="B69" s="68">
         <v>67</v>
@@ -7433,7 +7416,7 @@
       </c>
       <c r="H69" s="55"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="56"/>
       <c r="B70" s="68">
         <v>68</v>
@@ -7458,7 +7441,7 @@
       </c>
       <c r="H70" s="55"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="56"/>
       <c r="B71" s="68">
         <v>69</v>
@@ -7483,7 +7466,7 @@
       </c>
       <c r="H71" s="55"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="56"/>
       <c r="B72" s="68">
         <v>70</v>
@@ -7508,7 +7491,7 @@
       </c>
       <c r="H72" s="55"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="56"/>
       <c r="B73" s="68">
         <v>71</v>
@@ -7533,7 +7516,7 @@
       </c>
       <c r="H73" s="55"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="56"/>
       <c r="B74" s="68">
         <v>72</v>
@@ -7558,7 +7541,7 @@
       </c>
       <c r="H74" s="55"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="56"/>
       <c r="B75" s="68">
         <v>73</v>
@@ -7583,7 +7566,7 @@
       </c>
       <c r="H75" s="55"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="56"/>
       <c r="B76" s="68">
         <v>74</v>
@@ -7608,7 +7591,7 @@
       </c>
       <c r="H76" s="55"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="56"/>
       <c r="B77" s="68">
         <v>75</v>
@@ -7633,7 +7616,7 @@
       </c>
       <c r="H77" s="55"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="56"/>
       <c r="B78" s="68">
         <v>76</v>
@@ -7658,7 +7641,7 @@
       </c>
       <c r="H78" s="55"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="56"/>
       <c r="B79" s="68">
         <v>77</v>
@@ -7683,7 +7666,7 @@
       </c>
       <c r="H79" s="55"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="56"/>
       <c r="B80" s="68">
         <v>78</v>
@@ -7708,7 +7691,7 @@
       </c>
       <c r="H80" s="55"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="56"/>
       <c r="B81" s="68">
         <v>79</v>
@@ -7733,7 +7716,7 @@
       </c>
       <c r="H81" s="55"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="56"/>
       <c r="B82" s="68">
         <v>80</v>
@@ -7758,7 +7741,7 @@
       </c>
       <c r="H82" s="55"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="56"/>
       <c r="B83" s="68">
         <v>81</v>
@@ -7783,7 +7766,7 @@
       </c>
       <c r="H83" s="55"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="56"/>
       <c r="B84" s="68">
         <v>82</v>
@@ -7808,7 +7791,7 @@
       </c>
       <c r="H84" s="55"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="56"/>
       <c r="B85" s="68">
         <v>83</v>
@@ -7833,7 +7816,7 @@
       </c>
       <c r="H85" s="55"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="56"/>
       <c r="B86" s="68">
         <v>84</v>
@@ -7858,7 +7841,7 @@
       </c>
       <c r="H86" s="55"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="56"/>
       <c r="B87" s="68">
         <v>85</v>
@@ -7883,7 +7866,7 @@
       </c>
       <c r="H87" s="55"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="56"/>
       <c r="B88" s="68">
         <v>86</v>
@@ -7908,7 +7891,7 @@
       </c>
       <c r="H88" s="55"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="56"/>
       <c r="B89" s="68">
         <v>87</v>
@@ -7933,7 +7916,7 @@
       </c>
       <c r="H89" s="55"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="56"/>
       <c r="B90" s="68">
         <v>88</v>
@@ -7958,7 +7941,7 @@
       </c>
       <c r="H90" s="55"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="56"/>
       <c r="B91" s="68">
         <v>89</v>
@@ -7983,7 +7966,7 @@
       </c>
       <c r="H91" s="55"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="56"/>
       <c r="B92" s="68">
         <v>90</v>
@@ -8008,7 +7991,7 @@
       </c>
       <c r="H92" s="55"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="56"/>
       <c r="B93" s="68">
         <v>91</v>
@@ -8033,7 +8016,7 @@
       </c>
       <c r="H93" s="55"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="56"/>
       <c r="B94" s="68">
         <v>92</v>
@@ -8058,7 +8041,7 @@
       </c>
       <c r="H94" s="55"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="56"/>
       <c r="B95" s="68">
         <v>93</v>
@@ -8083,7 +8066,7 @@
       </c>
       <c r="H95" s="55"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="56"/>
       <c r="B96" s="68">
         <v>94</v>
@@ -8108,7 +8091,7 @@
       </c>
       <c r="H96" s="55"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="56"/>
       <c r="B97" s="68">
         <v>95</v>
@@ -8133,7 +8116,7 @@
       </c>
       <c r="H97" s="55"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="56"/>
       <c r="B98" s="68">
         <v>96</v>
@@ -8158,7 +8141,7 @@
       </c>
       <c r="H98" s="55"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="56"/>
       <c r="B99" s="68">
         <v>97</v>
@@ -8183,7 +8166,7 @@
       </c>
       <c r="H99" s="55"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="56"/>
       <c r="B100" s="68">
         <v>98</v>
@@ -8208,7 +8191,7 @@
       </c>
       <c r="H100" s="55"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="56"/>
       <c r="B101" s="68">
         <v>99</v>
@@ -8233,7 +8216,7 @@
       </c>
       <c r="H101" s="55"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="56"/>
       <c r="B102" s="68">
         <v>100</v>
@@ -8258,7 +8241,7 @@
       </c>
       <c r="H102" s="55"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="56"/>
       <c r="B103" s="68">
         <v>101</v>
@@ -8283,7 +8266,7 @@
       </c>
       <c r="H103" s="55"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="56"/>
       <c r="B104" s="68">
         <v>102</v>
@@ -8308,7 +8291,7 @@
       </c>
       <c r="H104" s="55"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="56"/>
       <c r="B105" s="68">
         <v>103</v>
@@ -8333,7 +8316,7 @@
       </c>
       <c r="H105" s="55"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="56"/>
       <c r="B106" s="68">
         <v>104</v>
@@ -8358,7 +8341,7 @@
       </c>
       <c r="H106" s="55"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="56"/>
       <c r="B107" s="68">
         <v>105</v>
@@ -8383,7 +8366,7 @@
       </c>
       <c r="H107" s="55"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="56"/>
       <c r="B108" s="68">
         <v>106</v>
@@ -8408,7 +8391,7 @@
       </c>
       <c r="H108" s="55"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="56"/>
       <c r="B109" s="68">
         <v>107</v>
@@ -8433,7 +8416,7 @@
       </c>
       <c r="H109" s="55"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="56"/>
       <c r="B110" s="68">
         <v>108</v>
@@ -8458,7 +8441,7 @@
       </c>
       <c r="H110" s="55"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="56"/>
       <c r="B111" s="68">
         <v>109</v>
@@ -8483,7 +8466,7 @@
       </c>
       <c r="H111" s="55"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="56"/>
       <c r="B112" s="68">
         <v>110</v>
@@ -8508,7 +8491,7 @@
       </c>
       <c r="H112" s="55"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="56"/>
       <c r="B113" s="68">
         <v>111</v>
@@ -8533,7 +8516,7 @@
       </c>
       <c r="H113" s="55"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="56"/>
       <c r="B114" s="68">
         <v>112</v>
@@ -8558,7 +8541,7 @@
       </c>
       <c r="H114" s="55"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="56"/>
       <c r="B115" s="68">
         <v>113</v>
@@ -8583,7 +8566,7 @@
       </c>
       <c r="H115" s="55"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="56"/>
       <c r="B116" s="68">
         <v>114</v>
@@ -8608,7 +8591,7 @@
       </c>
       <c r="H116" s="55"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="56"/>
       <c r="B117" s="68">
         <v>115</v>
@@ -8633,7 +8616,7 @@
       </c>
       <c r="H117" s="55"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="56"/>
       <c r="B118" s="68">
         <v>116</v>
@@ -8658,7 +8641,7 @@
       </c>
       <c r="H118" s="55"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="56"/>
       <c r="B119" s="68">
         <v>117</v>
@@ -8683,7 +8666,7 @@
       </c>
       <c r="H119" s="55"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="56"/>
       <c r="B120" s="68">
         <v>118</v>
@@ -8708,7 +8691,7 @@
       </c>
       <c r="H120" s="55"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="56"/>
       <c r="B121" s="68">
         <v>119</v>
@@ -8733,7 +8716,7 @@
       </c>
       <c r="H121" s="55"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="56"/>
       <c r="B122" s="68">
         <v>120</v>
@@ -8758,7 +8741,7 @@
       </c>
       <c r="H122" s="55"/>
     </row>
-    <row r="123" spans="1:8" ht="12" thickBot="1">
+    <row r="123" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="57"/>
       <c r="B123" s="58"/>
       <c r="C123" s="58"/>
@@ -8785,7 +8768,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="28" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="28" bestFit="1" customWidth="1"/>
@@ -8798,7 +8781,7 @@
     <col min="9" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -8812,7 +8795,7 @@
       <c r="G1" s="52"/>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5">
+    <row r="2" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
       <c r="B2" s="66" t="s">
         <v>15</v>
@@ -8827,17 +8810,17 @@
         <f>Currency&amp;"_010_"&amp;$D$1&amp;$E$1&amp;".xml"</f>
         <v>USD_010_IMMFRA6M.xml</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="65" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="55"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="56"/>
       <c r="B3" s="67">
         <v>1</v>
@@ -8863,7 +8846,7 @@
       </c>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="56"/>
       <c r="B4" s="68">
         <v>2</v>
@@ -8888,7 +8871,7 @@
       </c>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="68">
         <v>3</v>
@@ -8913,7 +8896,7 @@
       </c>
       <c r="H5" s="55"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="56"/>
       <c r="B6" s="68">
         <v>4</v>
@@ -8938,7 +8921,7 @@
       </c>
       <c r="H6" s="55"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
       <c r="B7" s="68">
         <v>5</v>
@@ -8963,7 +8946,7 @@
       </c>
       <c r="H7" s="55"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
       <c r="B8" s="68">
         <v>6</v>
@@ -8988,7 +8971,7 @@
       </c>
       <c r="H8" s="55"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
       <c r="B9" s="68">
         <v>7</v>
@@ -9013,7 +8996,7 @@
       </c>
       <c r="H9" s="55"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
       <c r="B10" s="68">
         <v>8</v>
@@ -9038,7 +9021,7 @@
       </c>
       <c r="H10" s="55"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
       <c r="B11" s="68">
         <v>9</v>
@@ -9063,7 +9046,7 @@
       </c>
       <c r="H11" s="55"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
       <c r="B12" s="68">
         <v>10</v>
@@ -9088,7 +9071,7 @@
       </c>
       <c r="H12" s="55"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
       <c r="B13" s="68">
         <v>11</v>
@@ -9113,7 +9096,7 @@
       </c>
       <c r="H13" s="55"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="56"/>
       <c r="B14" s="68">
         <v>12</v>
@@ -9138,7 +9121,7 @@
       </c>
       <c r="H14" s="55"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="56"/>
       <c r="B15" s="68">
         <v>13</v>
@@ -9163,7 +9146,7 @@
       </c>
       <c r="H15" s="55"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="56"/>
       <c r="B16" s="68">
         <v>14</v>
@@ -9188,7 +9171,7 @@
       </c>
       <c r="H16" s="55"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="56"/>
       <c r="B17" s="68">
         <v>15</v>
@@ -9213,7 +9196,7 @@
       </c>
       <c r="H17" s="55"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="56"/>
       <c r="B18" s="68">
         <v>16</v>
@@ -9238,7 +9221,7 @@
       </c>
       <c r="H18" s="55"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="56"/>
       <c r="B19" s="68">
         <v>17</v>
@@ -9263,7 +9246,7 @@
       </c>
       <c r="H19" s="55"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="56"/>
       <c r="B20" s="68">
         <v>18</v>
@@ -9288,7 +9271,7 @@
       </c>
       <c r="H20" s="55"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="56"/>
       <c r="B21" s="68">
         <v>19</v>
@@ -9313,7 +9296,7 @@
       </c>
       <c r="H21" s="55"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="56"/>
       <c r="B22" s="68">
         <v>20</v>
@@ -9338,7 +9321,7 @@
       </c>
       <c r="H22" s="55"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="56"/>
       <c r="B23" s="68">
         <v>21</v>
@@ -9363,7 +9346,7 @@
       </c>
       <c r="H23" s="55"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="56"/>
       <c r="B24" s="68">
         <v>22</v>
@@ -9388,7 +9371,7 @@
       </c>
       <c r="H24" s="55"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="56"/>
       <c r="B25" s="68">
         <v>23</v>
@@ -9413,7 +9396,7 @@
       </c>
       <c r="H25" s="55"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="56"/>
       <c r="B26" s="68">
         <v>24</v>
@@ -9438,7 +9421,7 @@
       </c>
       <c r="H26" s="55"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="56"/>
       <c r="B27" s="68">
         <v>25</v>
@@ -9463,7 +9446,7 @@
       </c>
       <c r="H27" s="55"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="68">
         <v>26</v>
@@ -9488,7 +9471,7 @@
       </c>
       <c r="H28" s="55"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="68">
         <v>27</v>
@@ -9513,7 +9496,7 @@
       </c>
       <c r="H29" s="55"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
       <c r="B30" s="68">
         <v>28</v>
@@ -9538,7 +9521,7 @@
       </c>
       <c r="H30" s="55"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="56"/>
       <c r="B31" s="68">
         <v>29</v>
@@ -9563,7 +9546,7 @@
       </c>
       <c r="H31" s="55"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="56"/>
       <c r="B32" s="68">
         <v>30</v>
@@ -9588,7 +9571,7 @@
       </c>
       <c r="H32" s="55"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="56"/>
       <c r="B33" s="68">
         <v>31</v>
@@ -9613,7 +9596,7 @@
       </c>
       <c r="H33" s="55"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="56"/>
       <c r="B34" s="68">
         <v>32</v>
@@ -9638,7 +9621,7 @@
       </c>
       <c r="H34" s="55"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="56"/>
       <c r="B35" s="68">
         <v>33</v>
@@ -9663,7 +9646,7 @@
       </c>
       <c r="H35" s="55"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="56"/>
       <c r="B36" s="68">
         <v>34</v>
@@ -9688,7 +9671,7 @@
       </c>
       <c r="H36" s="55"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="56"/>
       <c r="B37" s="68">
         <v>35</v>
@@ -9713,7 +9696,7 @@
       </c>
       <c r="H37" s="55"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="56"/>
       <c r="B38" s="68">
         <v>36</v>
@@ -9738,7 +9721,7 @@
       </c>
       <c r="H38" s="55"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="56"/>
       <c r="B39" s="68">
         <v>37</v>
@@ -9763,7 +9746,7 @@
       </c>
       <c r="H39" s="55"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="56"/>
       <c r="B40" s="68">
         <v>38</v>
@@ -9788,7 +9771,7 @@
       </c>
       <c r="H40" s="55"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="56"/>
       <c r="B41" s="68">
         <v>39</v>
@@ -9813,7 +9796,7 @@
       </c>
       <c r="H41" s="55"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
       <c r="B42" s="68">
         <v>40</v>
@@ -9838,7 +9821,7 @@
       </c>
       <c r="H42" s="55"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
       <c r="B43" s="68">
         <v>41</v>
@@ -9863,7 +9846,7 @@
       </c>
       <c r="H43" s="55"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
       <c r="B44" s="68">
         <v>42</v>
@@ -9888,7 +9871,7 @@
       </c>
       <c r="H44" s="55"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
       <c r="B45" s="68">
         <v>43</v>
@@ -9913,7 +9896,7 @@
       </c>
       <c r="H45" s="55"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
       <c r="B46" s="68">
         <v>44</v>
@@ -9938,7 +9921,7 @@
       </c>
       <c r="H46" s="55"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="56"/>
       <c r="B47" s="68">
         <v>45</v>
@@ -9963,7 +9946,7 @@
       </c>
       <c r="H47" s="55"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="56"/>
       <c r="B48" s="68">
         <v>46</v>
@@ -9988,7 +9971,7 @@
       </c>
       <c r="H48" s="55"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="56"/>
       <c r="B49" s="68">
         <v>47</v>
@@ -10013,7 +9996,7 @@
       </c>
       <c r="H49" s="55"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="56"/>
       <c r="B50" s="68">
         <v>48</v>
@@ -10038,7 +10021,7 @@
       </c>
       <c r="H50" s="55"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="56"/>
       <c r="B51" s="68">
         <v>49</v>
@@ -10063,7 +10046,7 @@
       </c>
       <c r="H51" s="55"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="56"/>
       <c r="B52" s="68">
         <v>50</v>
@@ -10088,7 +10071,7 @@
       </c>
       <c r="H52" s="55"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="56"/>
       <c r="B53" s="68">
         <v>51</v>
@@ -10113,7 +10096,7 @@
       </c>
       <c r="H53" s="55"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="56"/>
       <c r="B54" s="68">
         <v>52</v>
@@ -10138,7 +10121,7 @@
       </c>
       <c r="H54" s="55"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="56"/>
       <c r="B55" s="68">
         <v>53</v>
@@ -10163,7 +10146,7 @@
       </c>
       <c r="H55" s="55"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="56"/>
       <c r="B56" s="68">
         <v>54</v>
@@ -10188,7 +10171,7 @@
       </c>
       <c r="H56" s="55"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="56"/>
       <c r="B57" s="68">
         <v>55</v>
@@ -10213,7 +10196,7 @@
       </c>
       <c r="H57" s="55"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="56"/>
       <c r="B58" s="68">
         <v>56</v>
@@ -10238,7 +10221,7 @@
       </c>
       <c r="H58" s="55"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="56"/>
       <c r="B59" s="68">
         <v>57</v>
@@ -10263,7 +10246,7 @@
       </c>
       <c r="H59" s="55"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="56"/>
       <c r="B60" s="68">
         <v>58</v>
@@ -10288,7 +10271,7 @@
       </c>
       <c r="H60" s="55"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="56"/>
       <c r="B61" s="68">
         <v>59</v>
@@ -10313,7 +10296,7 @@
       </c>
       <c r="H61" s="55"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="56"/>
       <c r="B62" s="68">
         <v>60</v>
@@ -10338,7 +10321,7 @@
       </c>
       <c r="H62" s="55"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="56"/>
       <c r="B63" s="68">
         <v>61</v>
@@ -10363,7 +10346,7 @@
       </c>
       <c r="H63" s="55"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="56"/>
       <c r="B64" s="68">
         <v>62</v>
@@ -10388,7 +10371,7 @@
       </c>
       <c r="H64" s="55"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="56"/>
       <c r="B65" s="68">
         <v>63</v>
@@ -10413,7 +10396,7 @@
       </c>
       <c r="H65" s="55"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="56"/>
       <c r="B66" s="68">
         <v>64</v>
@@ -10438,7 +10421,7 @@
       </c>
       <c r="H66" s="55"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="56"/>
       <c r="B67" s="68">
         <v>65</v>
@@ -10463,7 +10446,7 @@
       </c>
       <c r="H67" s="55"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="56"/>
       <c r="B68" s="68">
         <v>66</v>
@@ -10488,7 +10471,7 @@
       </c>
       <c r="H68" s="55"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="56"/>
       <c r="B69" s="68">
         <v>67</v>
@@ -10513,7 +10496,7 @@
       </c>
       <c r="H69" s="55"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="56"/>
       <c r="B70" s="68">
         <v>68</v>
@@ -10538,7 +10521,7 @@
       </c>
       <c r="H70" s="55"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="56"/>
       <c r="B71" s="68">
         <v>69</v>
@@ -10563,7 +10546,7 @@
       </c>
       <c r="H71" s="55"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="56"/>
       <c r="B72" s="68">
         <v>70</v>
@@ -10588,7 +10571,7 @@
       </c>
       <c r="H72" s="55"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="56"/>
       <c r="B73" s="68">
         <v>71</v>
@@ -10613,7 +10596,7 @@
       </c>
       <c r="H73" s="55"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="56"/>
       <c r="B74" s="68">
         <v>72</v>
@@ -10638,7 +10621,7 @@
       </c>
       <c r="H74" s="55"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="56"/>
       <c r="B75" s="68">
         <v>73</v>
@@ -10663,7 +10646,7 @@
       </c>
       <c r="H75" s="55"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="56"/>
       <c r="B76" s="68">
         <v>74</v>
@@ -10688,7 +10671,7 @@
       </c>
       <c r="H76" s="55"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="56"/>
       <c r="B77" s="68">
         <v>75</v>
@@ -10713,7 +10696,7 @@
       </c>
       <c r="H77" s="55"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="56"/>
       <c r="B78" s="68">
         <v>76</v>
@@ -10738,7 +10721,7 @@
       </c>
       <c r="H78" s="55"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="56"/>
       <c r="B79" s="68">
         <v>77</v>
@@ -10763,7 +10746,7 @@
       </c>
       <c r="H79" s="55"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="56"/>
       <c r="B80" s="68">
         <v>78</v>
@@ -10788,7 +10771,7 @@
       </c>
       <c r="H80" s="55"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="56"/>
       <c r="B81" s="68">
         <v>79</v>
@@ -10813,7 +10796,7 @@
       </c>
       <c r="H81" s="55"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="56"/>
       <c r="B82" s="68">
         <v>80</v>
@@ -10838,7 +10821,7 @@
       </c>
       <c r="H82" s="55"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="56"/>
       <c r="B83" s="68">
         <v>81</v>
@@ -10863,7 +10846,7 @@
       </c>
       <c r="H83" s="55"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="56"/>
       <c r="B84" s="68">
         <v>82</v>
@@ -10888,7 +10871,7 @@
       </c>
       <c r="H84" s="55"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="56"/>
       <c r="B85" s="68">
         <v>83</v>
@@ -10913,7 +10896,7 @@
       </c>
       <c r="H85" s="55"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="56"/>
       <c r="B86" s="68">
         <v>84</v>
@@ -10938,7 +10921,7 @@
       </c>
       <c r="H86" s="55"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="56"/>
       <c r="B87" s="68">
         <v>85</v>
@@ -10963,7 +10946,7 @@
       </c>
       <c r="H87" s="55"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="56"/>
       <c r="B88" s="68">
         <v>86</v>
@@ -10988,7 +10971,7 @@
       </c>
       <c r="H88" s="55"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="56"/>
       <c r="B89" s="68">
         <v>87</v>
@@ -11013,7 +10996,7 @@
       </c>
       <c r="H89" s="55"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="56"/>
       <c r="B90" s="68">
         <v>88</v>
@@ -11038,7 +11021,7 @@
       </c>
       <c r="H90" s="55"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="56"/>
       <c r="B91" s="68">
         <v>89</v>
@@ -11063,7 +11046,7 @@
       </c>
       <c r="H91" s="55"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="56"/>
       <c r="B92" s="68">
         <v>90</v>
@@ -11088,7 +11071,7 @@
       </c>
       <c r="H92" s="55"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="56"/>
       <c r="B93" s="68">
         <v>91</v>
@@ -11113,7 +11096,7 @@
       </c>
       <c r="H93" s="55"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="56"/>
       <c r="B94" s="68">
         <v>92</v>
@@ -11138,7 +11121,7 @@
       </c>
       <c r="H94" s="55"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="56"/>
       <c r="B95" s="68">
         <v>93</v>
@@ -11163,7 +11146,7 @@
       </c>
       <c r="H95" s="55"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="56"/>
       <c r="B96" s="68">
         <v>94</v>
@@ -11188,7 +11171,7 @@
       </c>
       <c r="H96" s="55"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="56"/>
       <c r="B97" s="68">
         <v>95</v>
@@ -11213,7 +11196,7 @@
       </c>
       <c r="H97" s="55"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="56"/>
       <c r="B98" s="68">
         <v>96</v>
@@ -11238,7 +11221,7 @@
       </c>
       <c r="H98" s="55"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="56"/>
       <c r="B99" s="68">
         <v>97</v>
@@ -11263,7 +11246,7 @@
       </c>
       <c r="H99" s="55"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="56"/>
       <c r="B100" s="68">
         <v>98</v>
@@ -11288,7 +11271,7 @@
       </c>
       <c r="H100" s="55"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="56"/>
       <c r="B101" s="68">
         <v>99</v>
@@ -11313,7 +11296,7 @@
       </c>
       <c r="H101" s="55"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="56"/>
       <c r="B102" s="68">
         <v>100</v>
@@ -11338,7 +11321,7 @@
       </c>
       <c r="H102" s="55"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="56"/>
       <c r="B103" s="68">
         <v>101</v>
@@ -11363,7 +11346,7 @@
       </c>
       <c r="H103" s="55"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="56"/>
       <c r="B104" s="68">
         <v>102</v>
@@ -11388,7 +11371,7 @@
       </c>
       <c r="H104" s="55"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="56"/>
       <c r="B105" s="68">
         <v>103</v>
@@ -11413,7 +11396,7 @@
       </c>
       <c r="H105" s="55"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="56"/>
       <c r="B106" s="68">
         <v>104</v>
@@ -11438,7 +11421,7 @@
       </c>
       <c r="H106" s="55"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="56"/>
       <c r="B107" s="68">
         <v>105</v>
@@ -11463,7 +11446,7 @@
       </c>
       <c r="H107" s="55"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="56"/>
       <c r="B108" s="68">
         <v>106</v>
@@ -11488,7 +11471,7 @@
       </c>
       <c r="H108" s="55"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="56"/>
       <c r="B109" s="68">
         <v>107</v>
@@ -11513,7 +11496,7 @@
       </c>
       <c r="H109" s="55"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="56"/>
       <c r="B110" s="68">
         <v>108</v>
@@ -11538,7 +11521,7 @@
       </c>
       <c r="H110" s="55"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="56"/>
       <c r="B111" s="68">
         <v>109</v>
@@ -11563,7 +11546,7 @@
       </c>
       <c r="H111" s="55"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="56"/>
       <c r="B112" s="68">
         <v>110</v>
@@ -11588,7 +11571,7 @@
       </c>
       <c r="H112" s="55"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="56"/>
       <c r="B113" s="68">
         <v>111</v>
@@ -11613,7 +11596,7 @@
       </c>
       <c r="H113" s="55"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="56"/>
       <c r="B114" s="68">
         <v>112</v>
@@ -11638,7 +11621,7 @@
       </c>
       <c r="H114" s="55"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="56"/>
       <c r="B115" s="68">
         <v>113</v>
@@ -11663,7 +11646,7 @@
       </c>
       <c r="H115" s="55"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="56"/>
       <c r="B116" s="68">
         <v>114</v>
@@ -11688,7 +11671,7 @@
       </c>
       <c r="H116" s="55"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="56"/>
       <c r="B117" s="68">
         <v>115</v>
@@ -11713,7 +11696,7 @@
       </c>
       <c r="H117" s="55"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="56"/>
       <c r="B118" s="68">
         <v>116</v>
@@ -11738,7 +11721,7 @@
       </c>
       <c r="H118" s="55"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="56"/>
       <c r="B119" s="68">
         <v>117</v>
@@ -11763,7 +11746,7 @@
       </c>
       <c r="H119" s="55"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="56"/>
       <c r="B120" s="68">
         <v>118</v>
@@ -11788,7 +11771,7 @@
       </c>
       <c r="H120" s="55"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="56"/>
       <c r="B121" s="68">
         <v>119</v>
@@ -11813,7 +11796,7 @@
       </c>
       <c r="H121" s="55"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="56"/>
       <c r="B122" s="68">
         <v>120</v>
@@ -11838,7 +11821,7 @@
       </c>
       <c r="H122" s="55"/>
     </row>
-    <row r="123" spans="1:8" ht="12" thickBot="1">
+    <row r="123" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="57"/>
       <c r="B123" s="58"/>
       <c r="C123" s="58"/>
@@ -11865,7 +11848,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="28" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="28" bestFit="1" customWidth="1"/>
@@ -11875,30 +11858,30 @@
     <col min="6" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="42"/>
       <c r="B2" s="69" t="str">
         <f>Currency&amp;"_010_"&amp;"FuturesHWConvAdj.xml"</f>
         <v>USD_010_FuturesHWConvAdj.xml</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="70" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(C3:C4,SerializationPath&amp;B2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="D2" s="61" t="str">
-        <f>_xll.ohRangeRetrieveError(C2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(C2)</f>
         <v/>
       </c>
       <c r="E2" s="43"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
       <c r="B3" s="29" t="str">
         <f>Currency&amp;"HW_Volatility"&amp;QuoteSuffix</f>
@@ -11914,7 +11897,7 @@
       </c>
       <c r="E3" s="43"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="29" t="str">
         <f>Currency&amp;"HW_MeanReversion"&amp;QuoteSuffix</f>
@@ -11930,7 +11913,7 @@
       </c>
       <c r="E4" s="43"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="44"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_010_DepoFRAFuturesQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_010_DepoFRAFuturesQuotes.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Currency</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1286,8 +1283,9 @@
       <c r="C8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>56</v>
+      <c r="D8" s="23" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="22"/>
     </row>
@@ -1423,12 +1421,12 @@
         <v>USD_010_Deposits.xml</v>
       </c>
       <c r="D2" s="72" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D20,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="65" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D20,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="65" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="34"/>
     </row>
@@ -1829,12 +1827,12 @@
         <v>USD_010_FRA.xml</v>
       </c>
       <c r="E2" s="80" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(E3:E35,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F2" s="75" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(E3:E35,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F2" s="75" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(E2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2651,12 +2649,12 @@
         <v>USD_010_FUT1M.xml</v>
       </c>
       <c r="F2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="65" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="65" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -5731,12 +5729,12 @@
         <v>USD_010_FUT3M.xml</v>
       </c>
       <c r="F2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="65" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="65" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -8811,12 +8809,12 @@
         <v>USD_010_IMMFRA6M.xml</v>
       </c>
       <c r="F2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="65" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="65" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -11872,12 +11870,12 @@
         <v>USD_010_FuturesHWConvAdj.xml</v>
       </c>
       <c r="C2" s="70" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(C3:C4,SerializationPath&amp;B2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D2" s="61" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(C3:C4,SerializationPath&amp;B2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="61" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="E2" s="43"/>
     </row>
